--- a/URS_Certifications.xlsx
+++ b/URS_Certifications.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\сайт\сайт2\Сайт на практику\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBCC5FAF-3467-4682-B529-4F9F522CCE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4E79E7-3474-4A1A-B04B-F4ABB6045B75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4091,28 +4091,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -4390,17 +4369,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1340"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1248" workbookViewId="0">
-      <selection activeCell="E1256" sqref="E1256"/>
+    <sheetView tabSelected="1" topLeftCell="A869" workbookViewId="0">
+      <selection activeCell="C893" sqref="C893"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="3" max="3" width="12.77734375" customWidth="1"/>
     <col min="4" max="4" width="18.44140625" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="6.109375" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" customWidth="1"/>
   </cols>
